--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_19_19.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_19_19.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>451507.4448451854</v>
+        <v>449068.9717454386</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673437</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -659,22 +659,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>298.9787503760141</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>127.4568927142599</v>
+        <v>193.0439640562707</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -707,16 +707,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U2" t="n">
-        <v>73.34832090868497</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -753,10 +753,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -814,28 +814,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>25.71913121974252</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,10 +862,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
         <v>219.5489492761692</v>
@@ -874,16 +874,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>267.8635071306604</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>323.6637250476211</v>
       </c>
       <c r="G5" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>68.17859308440606</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,13 +947,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -990,10 +990,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1054,19 +1054,19 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
@@ -1099,13 +1099,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S7" t="n">
-        <v>185.7622132465466</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
         <v>286.2118382056129</v>
@@ -1114,13 +1114,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>122.4424591077293</v>
       </c>
     </row>
     <row r="8">
@@ -1133,16 +1133,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>61.31988685654886</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>124.2781875329276</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>410.9217256534534</v>
@@ -1151,7 +1151,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1193,10 +1193,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1230,7 +1230,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,10 +1257,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T9" t="n">
         <v>190.7165703189231</v>
@@ -1288,25 +1288,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0.6293919502451603</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1336,25 +1336,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>166.7423444985214</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1379,10 +1379,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417118</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1531,19 +1531,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1591,10 +1591,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>193.996253843244</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1607,7 +1607,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1616,7 +1616,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G14" t="n">
         <v>409.8033385187866</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1765,25 +1765,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.1115298725977</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,16 +1810,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892457</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1892,10 +1892,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -2008,13 +2008,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2065,7 +2065,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>115.7063133373741</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2090,7 +2090,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G20" t="n">
         <v>409.8033385187866</v>
@@ -2239,7 +2239,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -2248,13 +2248,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>19.91555826188888</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2290,19 +2290,19 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>205.4655738502109</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>225.7096553890389</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2366,10 +2366,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
         <v>250.9057009881286</v>
@@ -2482,13 +2482,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833861</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2521,16 +2521,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
-        <v>176.1811323375794</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2716,19 +2716,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>102.1557845699818</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,16 +2758,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>253.2918698186439</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2947,19 +2947,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>136.1078891637031</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>71.79687029690999</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3032,10 +3032,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
@@ -3193,19 +3193,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>99.9742741983368</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3235,10 +3235,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3250,7 +3250,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>210.7001060820176</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3323,7 +3323,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701337</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3424,16 +3424,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>101.6969570046971</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
@@ -3472,10 +3472,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>41.02686156550228</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3515,7 +3515,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187859</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3664,16 +3664,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>103.1686991936193</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>137.7610225486951</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3709,7 +3709,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3898,13 +3898,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>23.6255456814127</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -3913,10 +3913,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>107.4021082756238</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -4138,10 +4138,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -4150,10 +4150,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4201,7 +4201,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>104.4262124629291</v>
+        <v>156.2292142534452</v>
       </c>
     </row>
   </sheetData>
@@ -4304,34 +4304,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1748.543022998967</v>
+        <v>921.7704558796256</v>
       </c>
       <c r="C2" t="n">
-        <v>1379.580506058555</v>
+        <v>921.7704558796256</v>
       </c>
       <c r="D2" t="n">
-        <v>1021.314807451804</v>
+        <v>563.5047572728752</v>
       </c>
       <c r="E2" t="n">
-        <v>1021.314807451804</v>
+        <v>261.5060195193255</v>
       </c>
       <c r="F2" t="n">
-        <v>610.3289026621969</v>
+        <v>261.5060195193255</v>
       </c>
       <c r="G2" t="n">
-        <v>195.2564525071934</v>
+        <v>261.5060195193255</v>
       </c>
       <c r="H2" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I2" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
@@ -4340,7 +4340,7 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O2" t="n">
         <v>2623.528026939508</v>
@@ -4352,28 +4352,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3325.60582160917</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U2" t="n">
-        <v>3251.516608570094</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>3251.516608570094</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W2" t="n">
-        <v>2898.74795329998</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X2" t="n">
-        <v>2525.2821950389</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y2" t="n">
-        <v>2135.142863063088</v>
+        <v>1308.370295943747</v>
       </c>
     </row>
     <row r="3">
@@ -4383,37 +4383,37 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I3" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228005</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
@@ -4440,7 +4440,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V3" t="n">
         <v>1779.608347199865</v>
@@ -4449,10 +4449,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="4">
@@ -4462,40 +4462,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>634.7363945304596</v>
+        <v>381.6654861422326</v>
       </c>
       <c r="C4" t="n">
-        <v>608.7574741064773</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="D4" t="n">
-        <v>458.6408346941415</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="E4" t="n">
-        <v>310.7277411117484</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="F4" t="n">
-        <v>163.837793613838</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="G4" t="n">
-        <v>163.837793613838</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H4" t="n">
-        <v>163.837793613838</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J4" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L4" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N4" t="n">
         <v>1317.747152581905</v>
@@ -4507,31 +4507,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R4" t="n">
-        <v>1837.464090846021</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S4" t="n">
-        <v>1837.464090846021</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T4" t="n">
-        <v>1615.697475415547</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U4" t="n">
-        <v>1326.59460854119</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V4" t="n">
-        <v>1326.59460854119</v>
+        <v>880.2242361621292</v>
       </c>
       <c r="W4" t="n">
-        <v>1037.177438504229</v>
+        <v>609.6550370402499</v>
       </c>
       <c r="X4" t="n">
-        <v>1037.177438504229</v>
+        <v>381.6654861422326</v>
       </c>
       <c r="Y4" t="n">
-        <v>816.3848593606994</v>
+        <v>381.6654861422326</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1308.370295943748</v>
+        <v>1506.363819949359</v>
       </c>
       <c r="C5" t="n">
-        <v>939.4077790033366</v>
+        <v>1506.363819949359</v>
       </c>
       <c r="D5" t="n">
-        <v>581.1420803965862</v>
+        <v>1148.098121342609</v>
       </c>
       <c r="E5" t="n">
-        <v>195.3538277983419</v>
+        <v>1148.098121342609</v>
       </c>
       <c r="F5" t="n">
-        <v>188.4083270491384</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G5" t="n">
-        <v>177.376280934539</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810564</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520489</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794325</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="V5" t="n">
-        <v>2424.744041450754</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="W5" t="n">
-        <v>2071.97538618064</v>
+        <v>2656.568750250372</v>
       </c>
       <c r="X5" t="n">
-        <v>1698.50962791956</v>
+        <v>2283.102991989293</v>
       </c>
       <c r="Y5" t="n">
-        <v>1308.370295943748</v>
+        <v>1892.963660013481</v>
       </c>
     </row>
     <row r="6">
@@ -4635,31 +4635,31 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927781</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
         <v>85.51940803064554</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228005</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031475</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
         <v>2407.411984886741</v>
@@ -4699,40 +4699,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>678.4618728343356</v>
+        <v>528.5554336401428</v>
       </c>
       <c r="C7" t="n">
-        <v>678.4618728343356</v>
+        <v>359.619250712236</v>
       </c>
       <c r="D7" t="n">
-        <v>528.3452334219999</v>
+        <v>359.619250712236</v>
       </c>
       <c r="E7" t="n">
-        <v>380.4321398396067</v>
+        <v>359.619250712236</v>
       </c>
       <c r="F7" t="n">
-        <v>380.4321398396067</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="G7" t="n">
-        <v>212.7293032143257</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J7" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L7" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N7" t="n">
         <v>1317.747152581905</v>
@@ -4744,31 +4744,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S7" t="n">
-        <v>1739.655948849557</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T7" t="n">
-        <v>1739.655948849557</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U7" t="n">
-        <v>1450.5530819752</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V7" t="n">
-        <v>1195.868593769314</v>
+        <v>880.2242361621292</v>
       </c>
       <c r="W7" t="n">
-        <v>906.451423732353</v>
+        <v>880.2242361621292</v>
       </c>
       <c r="X7" t="n">
-        <v>678.4618728343356</v>
+        <v>652.2346852641118</v>
       </c>
       <c r="Y7" t="n">
-        <v>678.4618728343356</v>
+        <v>528.5554336401428</v>
       </c>
     </row>
     <row r="8">
@@ -4778,16 +4778,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2038.144201386633</v>
+        <v>1311.909787855438</v>
       </c>
       <c r="C8" t="n">
-        <v>1976.204921733553</v>
+        <v>1311.909787855438</v>
       </c>
       <c r="D8" t="n">
-        <v>1617.939223126803</v>
+        <v>953.6440892486874</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F8" t="n">
         <v>821.1650657389509</v>
@@ -4799,13 +4799,13 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
@@ -4814,40 +4814,40 @@
         <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136267</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520489</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794325</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V8" t="n">
-        <v>2424.744041450755</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W8" t="n">
-        <v>2424.744041450755</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X8" t="n">
-        <v>2424.744041450755</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y8" t="n">
-        <v>2424.744041450755</v>
+        <v>1698.50962791956</v>
       </c>
     </row>
     <row r="9">
@@ -4857,28 +4857,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387309</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927783</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064585</v>
+        <v>85.51940803064538</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
         <v>160.1893859228007</v>
@@ -4887,46 +4887,46 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4936,43 +4936,43 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>994.2880032601528</v>
+        <v>215.0609594592686</v>
       </c>
       <c r="C10" t="n">
-        <v>825.3518203322459</v>
+        <v>215.0609594592686</v>
       </c>
       <c r="D10" t="n">
-        <v>675.2351809199101</v>
+        <v>215.0609594592686</v>
       </c>
       <c r="E10" t="n">
-        <v>527.322087337517</v>
+        <v>67.1478658768755</v>
       </c>
       <c r="F10" t="n">
-        <v>380.4321398396067</v>
+        <v>67.1478658768755</v>
       </c>
       <c r="G10" t="n">
-        <v>212.7293032143257</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N10" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O10" t="n">
         <v>1617.076751502319</v>
@@ -4984,28 +4984,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T10" t="n">
-        <v>1758.867937483926</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U10" t="n">
-        <v>1469.76507060957</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V10" t="n">
-        <v>1215.080582403683</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="W10" t="n">
-        <v>1215.080582403683</v>
+        <v>845.4915543310558</v>
       </c>
       <c r="X10" t="n">
-        <v>1215.080582403683</v>
+        <v>617.5020034330385</v>
       </c>
       <c r="Y10" t="n">
-        <v>994.2880032601528</v>
+        <v>396.7094242895083</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="12">
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,28 +5112,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>923.0670414349513</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1520.445529061503</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="N12" t="n">
-        <v>2148.04349261611</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O12" t="n">
-        <v>2148.04349261611</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P12" t="n">
         <v>2319.799627685893</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1016.58045691144</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>847.644273983533</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D13" t="n">
-        <v>697.5276345711973</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E13" t="n">
-        <v>549.6145409888042</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2227.361618603202</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1938.2863919474</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1683.601903741513</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1394.184733704552</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1394.184733704552</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>1198.22892174168</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5258,10 +5258,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
         <v>793.7736536168611</v>
@@ -5273,13 +5273,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5288,7 +5288,7 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5352,31 +5352,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K15" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L15" t="n">
-        <v>352.5519571452613</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="M15" t="n">
-        <v>949.9304447718132</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N15" t="n">
-        <v>1577.52840832642</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O15" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>800.5007694647265</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>631.7012443408905</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>631.7012443408905</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408905</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1975.033022579361</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1720.348534373474</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1430.931364336514</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1202.941813438496</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>982.1492342949663</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5504,31 +5504,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075796</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5549,13 +5549,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5589,28 +5589,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>315.9123021921476</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L18" t="n">
-        <v>315.9123021921476</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M18" t="n">
-        <v>913.2907898186995</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N18" t="n">
-        <v>1540.888753373306</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="O18" t="n">
-        <v>2092.798483612593</v>
+        <v>1889.844516861991</v>
       </c>
       <c r="P18" t="n">
-        <v>2516.421633107662</v>
+        <v>2313.467666357059</v>
       </c>
       <c r="Q18" t="n">
         <v>2516.421633107662</v>
@@ -5647,19 +5647,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>874.8686257536381</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>705.9324428257312</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>555.8158034133954</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E19" t="n">
-        <v>407.9027098310023</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F19" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G19" t="n">
         <v>93.81666304797187</v>
@@ -5671,52 +5671,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570819</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.963083580262</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2446.963083580262</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2227.361618603203</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1938.286391947401</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1683.601903741514</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1394.184733704553</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1277.309669727408</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5732,37 +5732,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5832,19 +5832,19 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>740.5562989961525</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1337.934786622704</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N21" t="n">
-        <v>1337.934786622704</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O21" t="n">
-        <v>1889.844516861991</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
         <v>2283.159972732779</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>847.6442739835331</v>
+        <v>580.8993044876671</v>
       </c>
       <c r="C22" t="n">
-        <v>847.6442739835331</v>
+        <v>411.9631215597602</v>
       </c>
       <c r="D22" t="n">
-        <v>697.5276345711974</v>
+        <v>261.8464821474245</v>
       </c>
       <c r="E22" t="n">
-        <v>549.6145409888043</v>
+        <v>113.9333885650314</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>113.9333885650314</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5938,22 +5938,22 @@
         <v>2264.108249235165</v>
       </c>
       <c r="T22" t="n">
-        <v>2056.567265548083</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U22" t="n">
-        <v>1767.492038892281</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V22" t="n">
-        <v>1767.492038892281</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W22" t="n">
-        <v>1478.07486885532</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X22" t="n">
-        <v>1250.085317957303</v>
+        <v>983.340348461437</v>
       </c>
       <c r="Y22" t="n">
-        <v>1029.292738813773</v>
+        <v>762.5477693179068</v>
       </c>
     </row>
     <row r="23">
@@ -5978,37 +5978,37 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6023,13 +6023,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6063,31 +6063,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L24" t="n">
-        <v>1074.481071167373</v>
+        <v>589.1422692637307</v>
       </c>
       <c r="M24" t="n">
-        <v>1671.859558793925</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N24" t="n">
-        <v>1731.250242493492</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O24" t="n">
-        <v>2283.159972732779</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,19 +6121,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>874.8686257536381</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C25" t="n">
-        <v>705.9324428257312</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D25" t="n">
-        <v>555.8158034133954</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="E25" t="n">
-        <v>407.9027098310023</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="F25" t="n">
-        <v>261.0127623330919</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="G25" t="n">
         <v>93.81666304797187</v>
@@ -6145,52 +6145,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2269.002343845332</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>2049.400878868273</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>2049.400878868273</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1794.716390662386</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1505.299220625425</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>1277.309669727408</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y25" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="26">
@@ -6221,22 +6221,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
         <v>3640.422291068009</v>
@@ -6303,19 +6303,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1231.938859683105</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N27" t="n">
-        <v>1859.536823237711</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O27" t="n">
         <v>1859.536823237711</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1016.58045691144</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C28" t="n">
-        <v>847.6442739835331</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D28" t="n">
-        <v>697.5276345711974</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E28" t="n">
-        <v>549.6145409888043</v>
+        <v>197.0043242297717</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6382,52 +6382,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>2191.112710026075</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1936.428221820188</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1647.011051783227</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>1419.02150088521</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y28" t="n">
-        <v>1198.22892174168</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="29">
@@ -6452,37 +6452,37 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6540,25 +6540,25 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>95.58405025273903</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>95.58405025273903</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>692.9625378792909</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1320.560501433898</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>1872.470231673185</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="Q30" t="n">
         <v>2516.421633107662</v>
@@ -6595,16 +6595,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>800.5007694647277</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="C31" t="n">
-        <v>631.5645865368208</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="D31" t="n">
-        <v>481.447947124485</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E31" t="n">
-        <v>333.5348535420919</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F31" t="n">
         <v>261.0127623330919</v>
@@ -6643,28 +6643,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1975.033022579363</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1720.348534373476</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1430.931364336515</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1202.941813438498</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>982.1492342949674</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6680,7 +6680,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
         <v>1204.759558406469</v>
@@ -6695,10 +6695,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075807</v>
@@ -6713,7 +6713,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6777,25 +6777,25 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>924.8344286397182</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1307.627092998424</v>
+        <v>1336.913939313768</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q33" t="n">
         <v>2516.421633107662</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>931.4710609784063</v>
+        <v>513.8536007400699</v>
       </c>
       <c r="C34" t="n">
-        <v>762.5348780504994</v>
+        <v>344.917417812163</v>
       </c>
       <c r="D34" t="n">
-        <v>612.4182386381636</v>
+        <v>194.8007783998272</v>
       </c>
       <c r="E34" t="n">
-        <v>464.5051450557705</v>
+        <v>194.8007783998272</v>
       </c>
       <c r="F34" t="n">
-        <v>317.6151975578602</v>
+        <v>194.8007783998272</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6859,16 +6859,16 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038327</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797728</v>
       </c>
       <c r="M34" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910807</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570816</v>
       </c>
       <c r="O34" t="n">
         <v>2035.089393279801</v>
@@ -6883,25 +6883,25 @@
         <v>2379.917379832661</v>
       </c>
       <c r="S34" t="n">
-        <v>2379.917379832661</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T34" t="n">
-        <v>2379.917379832661</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U34" t="n">
-        <v>2090.842153176859</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V34" t="n">
-        <v>1836.157664970973</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W34" t="n">
-        <v>1546.740494934012</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X34" t="n">
-        <v>1333.912104952176</v>
+        <v>916.2946447138397</v>
       </c>
       <c r="Y34" t="n">
-        <v>1113.119525808646</v>
+        <v>695.5020655703096</v>
       </c>
     </row>
     <row r="35">
@@ -6914,7 +6914,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004713</v>
@@ -6923,16 +6923,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168618</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111715</v>
@@ -6950,7 +6950,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6962,22 +6962,22 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7008,34 +7008,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793925</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N36" t="n">
-        <v>2092.798483612594</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O36" t="n">
-        <v>2092.798483612594</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="P36" t="n">
-        <v>2516.421633107662</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>874.8686257536381</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>705.9324428257312</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D37" t="n">
-        <v>555.8158034133954</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E37" t="n">
-        <v>407.9027098310023</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="F37" t="n">
         <v>261.0127623330919</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7120,25 +7120,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2338.476105524075</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2338.476105524075</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>2049.400878868273</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1794.716390662386</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1505.299220625425</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1277.309669727408</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7148,46 +7148,46 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168602</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7199,25 +7199,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7245,10 +7245,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J39" t="n">
         <v>243.4633055756266</v>
@@ -7257,19 +7257,19 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>577.3880777468471</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1174.766565373399</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N39" t="n">
-        <v>1577.52840832642</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O39" t="n">
-        <v>2129.438138565707</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>696.7084350851671</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>527.7722521572603</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>527.7722521572603</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="E40" t="n">
-        <v>379.8591585748671</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F40" t="n">
-        <v>232.9692110769568</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
@@ -7357,25 +7357,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1327.139029956954</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1099.149479058937</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>878.3568999154069</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7424,7 +7424,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7485,25 +7485,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K42" t="n">
-        <v>245.2306927803937</v>
+        <v>214.9229991561138</v>
       </c>
       <c r="L42" t="n">
-        <v>740.5562989961525</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M42" t="n">
-        <v>1337.934786622704</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N42" t="n">
-        <v>1731.250242493492</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O42" t="n">
-        <v>2283.159972732779</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
         <v>2283.159972732779</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>983.3556038098237</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>814.4194208819168</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="D43" t="n">
-        <v>664.3027814695811</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="E43" t="n">
-        <v>516.389687887188</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F43" t="n">
-        <v>369.4997403892776</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G43" t="n">
-        <v>202.3036411041575</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7591,28 +7591,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>2157.887856924458</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1903.203368718571</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1613.786198681611</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1385.796647783593</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>1165.004068640063</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7634,31 +7634,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7722,25 +7722,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L45" t="n">
-        <v>1058.183521551621</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M45" t="n">
-        <v>1655.562009178173</v>
+        <v>840.8417932021785</v>
       </c>
       <c r="N45" t="n">
-        <v>2283.159972732779</v>
+        <v>1468.439756756785</v>
       </c>
       <c r="O45" t="n">
-        <v>2283.159972732779</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
         <v>2283.159972732779</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1098.667160263527</v>
+        <v>576.8388927589092</v>
       </c>
       <c r="C46" t="n">
-        <v>929.7309773356195</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="D46" t="n">
-        <v>779.6143379232838</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E46" t="n">
-        <v>631.7012443408906</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7828,28 +7828,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>2157.887856924458</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1903.203368718571</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1613.786198681611</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1385.796647783593</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>1280.315625093766</v>
+        <v>758.4873575891489</v>
       </c>
     </row>
   </sheetData>
@@ -10364,7 +10364,7 @@
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -22547,25 +22547,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>82.95161969624772</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>167.1508716730605</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22595,7 +22595,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -22705,7 +22705,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>141.5276898788853</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -22717,13 +22717,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22762,13 +22762,13 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -23267,10 +23267,10 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>-3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23419,22 +23419,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>43.2652634529499</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,10 +23461,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23479,10 +23479,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>24.58839950885078</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23504,7 +23504,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23653,25 +23653,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0.1352912260301764</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>43.26526345294991</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,13 +23698,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23896,19 +23896,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>45.44677382459309</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23953,7 +23953,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>110.003342051663</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24127,7 +24127,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -24136,13 +24136,13 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>145.60858003038</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -24178,13 +24178,13 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>11.93987647707735</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24370,19 +24370,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>65.54986409393024</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,16 +24409,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>4.845153664065236</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.184474389243</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24604,22 +24604,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>43.26526345294945</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,16 +24646,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>32.89260457060021</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24835,19 +24835,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>43.72409101823416</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>73.62417772602126</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24883,13 +24883,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25081,19 +25081,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>65.54986409393204</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25123,10 +25123,10 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25138,7 +25138,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>15.0095493070196</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25312,16 +25312,16 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>43.72409101823416</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25360,10 +25360,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>139.9994244361423</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25552,16 +25552,16 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>45.44677382459305</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>27.76311574357379</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
@@ -25597,7 +25597,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25786,13 +25786,13 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>143.6212754172151</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -25801,10 +25801,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>32.8926045706001</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,13 +25831,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26026,10 +26026,10 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -26038,10 +26038,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,13 +26068,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26089,7 +26089,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>114.1584408891657</v>
+        <v>62.35543909864958</v>
       </c>
     </row>
   </sheetData>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>963356.5637572928</v>
+        <v>963356.5637572933</v>
       </c>
     </row>
     <row r="3">
@@ -26311,16 +26311,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>354580.0968631197</v>
+        <v>354580.0968631198</v>
       </c>
       <c r="C2" t="n">
-        <v>389994.8406855345</v>
+        <v>389994.8406855344</v>
       </c>
       <c r="D2" t="n">
         <v>389994.8406855344</v>
       </c>
       <c r="E2" t="n">
-        <v>383394.6348527531</v>
+        <v>383394.6348527529</v>
       </c>
       <c r="F2" t="n">
         <v>383394.634852753</v>
@@ -26329,19 +26329,19 @@
         <v>383394.634852753</v>
       </c>
       <c r="H2" t="n">
-        <v>383394.6348527529</v>
+        <v>383394.634852753</v>
       </c>
       <c r="I2" t="n">
         <v>383394.634852753</v>
       </c>
       <c r="J2" t="n">
-        <v>383394.6348527528</v>
+        <v>383394.6348527529</v>
       </c>
       <c r="K2" t="n">
+        <v>383394.6348527529</v>
+      </c>
+      <c r="L2" t="n">
         <v>383394.634852753</v>
-      </c>
-      <c r="L2" t="n">
-        <v>383394.6348527528</v>
       </c>
       <c r="M2" t="n">
         <v>383394.634852753</v>
@@ -26350,10 +26350,10 @@
         <v>383394.634852753</v>
       </c>
       <c r="O2" t="n">
+        <v>383394.6348527527</v>
+      </c>
+      <c r="P2" t="n">
         <v>383394.634852753</v>
-      </c>
-      <c r="P2" t="n">
-        <v>383394.6348527528</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727593</v>
+        <v>1328744.745727592</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26372,7 @@
         <v>1.947259988810401e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073552</v>
+        <v>325412.4618073551</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,10 +26384,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.711553068162175e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972774</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551178</v>
+        <v>85055.02793551175</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,13 +26415,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>49019.07124050414</v>
+        <v>49019.07124050435</v>
       </c>
       <c r="C4" t="n">
-        <v>91573.95495316939</v>
+        <v>91573.95495316948</v>
       </c>
       <c r="D4" t="n">
-        <v>91573.95495316936</v>
+        <v>91573.95495316942</v>
       </c>
       <c r="E4" t="n">
         <v>12386.92018181813</v>
@@ -26445,13 +26445,13 @@
         <v>12386.92018181813</v>
       </c>
       <c r="L4" t="n">
-        <v>12386.92018181815</v>
+        <v>12386.92018181813</v>
       </c>
       <c r="M4" t="n">
-        <v>12386.92018181818</v>
+        <v>12386.92018181813</v>
       </c>
       <c r="N4" t="n">
-        <v>12386.92018181813</v>
+        <v>12386.92018181816</v>
       </c>
       <c r="O4" t="n">
         <v>12386.92018181813</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1131117.66066637</v>
+        <v>-1131304.054054909</v>
       </c>
       <c r="C6" t="n">
-        <v>190486.9451709718</v>
+        <v>190486.9451709717</v>
       </c>
       <c r="D6" t="n">
         <v>190486.9451709715</v>
       </c>
       <c r="E6" t="n">
-        <v>-55527.27696032735</v>
+        <v>-55562.01488576307</v>
       </c>
       <c r="F6" t="n">
-        <v>269885.1848470278</v>
+        <v>269850.446921592</v>
       </c>
       <c r="G6" t="n">
-        <v>269885.1848470277</v>
+        <v>269850.446921592</v>
       </c>
       <c r="H6" t="n">
-        <v>269885.1848470278</v>
+        <v>269850.4469215921</v>
       </c>
       <c r="I6" t="n">
-        <v>269885.1848470278</v>
+        <v>269850.4469215919</v>
       </c>
       <c r="J6" t="n">
-        <v>52353.98244975011</v>
+        <v>52319.2445243145</v>
       </c>
       <c r="K6" t="n">
-        <v>269885.1848470277</v>
+        <v>269850.4469215921</v>
       </c>
       <c r="L6" t="n">
-        <v>269885.1848470275</v>
+        <v>269850.4469215921</v>
       </c>
       <c r="M6" t="n">
-        <v>184830.156911516</v>
+        <v>184795.4189860803</v>
       </c>
       <c r="N6" t="n">
-        <v>269885.1848470278</v>
+        <v>269850.4469215921</v>
       </c>
       <c r="O6" t="n">
-        <v>269885.1848470277</v>
+        <v>269850.4469215918</v>
       </c>
       <c r="P6" t="n">
-        <v>269885.1848470275</v>
+        <v>269850.446921592</v>
       </c>
     </row>
   </sheetData>
@@ -26741,7 +26741,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,16 +26787,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="D4" t="n">
-        <v>831.401455402293</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26978,7 +26978,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.3068326973554</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973554</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.3068326973554</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27388,13 +27388,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>101.5638003310497</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27430,13 +27430,13 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>177.646851050217</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -27534,25 +27534,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27585,7 +27585,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -27597,13 +27597,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>18.65949120593058</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,25 +27613,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>83.21232069409029</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>226.4291713029144</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27670,10 +27670,10 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27774,25 +27774,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,13 +27819,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>4.006812084895301</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -27834,13 +27834,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>96.14219424436551</v>
       </c>
     </row>
     <row r="8">
@@ -27853,16 +27853,16 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>303.9530049144587</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>257.6521825393341</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -27913,10 +27913,10 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28008,25 +28008,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>165.3964163087831</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
         <v>96.35242040983809</v>
@@ -28056,25 +28056,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004732</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>52.80660477764783</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28327,7 +28327,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -28755,7 +28755,7 @@
         <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>1.131184035330079e-12</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
         <v>0</v>
@@ -28810,7 +28810,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -29250,7 +29250,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>1.131184035330079e-12</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -29752,10 +29752,10 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="E32" t="n">
-        <v>3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -30043,7 +30043,7 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>1.181774678116199e-12</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -30235,7 +30235,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>7.389644451905042e-13</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -31039,43 +31039,43 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I2" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J2" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
@@ -31124,40 +31124,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K3" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31197,13 +31197,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
@@ -31212,16 +31212,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M4" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P4" t="n">
         <v>237.6785118802169</v>
@@ -31230,16 +31230,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,43 +31276,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I5" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J5" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
@@ -31361,40 +31361,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K6" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31434,13 +31434,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
@@ -31449,16 +31449,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M7" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P7" t="n">
         <v>237.6785118802169</v>
@@ -31467,16 +31467,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,7 +31513,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H8" t="n">
         <v>44.86703772844668</v>
@@ -31522,40 +31522,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R8" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T8" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,46 +31592,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31674,43 +31674,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P10" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U10" t="n">
         <v>0.1071911508780295</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>416.4300581532626</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>307.465452939363</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,10 +32066,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>101.3076196007749</v>
@@ -32081,34 +32081,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>398.1179220955532</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>732.4825987614915</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>211.0222436375116</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>344.9857809048118</v>
       </c>
       <c r="R18" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32552,13 +32552,13 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>377.6350660745956</v>
       </c>
       <c r="N21" t="n">
         <v>131.3417120833333</v>
@@ -32567,7 +32567,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>531.2627466777524</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
         <v>375.599612848529</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>191.332301678856</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>461.1007071927452</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,43 +32935,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J26" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>454.1257695262137</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>368.6279838366847</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R27" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33260,13 +33260,13 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
@@ -33275,13 +33275,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>548.8125296967492</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>359.1374415194863</v>
       </c>
       <c r="R30" t="n">
         <v>182.6892564418561</v>
@@ -33497,7 +33497,7 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
         <v>475.1391886422585</v>
@@ -33506,19 +33506,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>528.7932908500043</v>
+        <v>407.2177391203972</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>182.6892564418561</v>
@@ -33670,7 +33670,7 @@
         <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
         <v>790.8204499236507</v>
@@ -33731,13 +33731,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
@@ -33746,19 +33746,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>556.532545233504</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>177.7456072667729</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33977,13 +33977,13 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
-        <v>538.1718564803244</v>
+        <v>405.6377363145776</v>
       </c>
       <c r="O39" t="n">
         <v>700.0808204437243</v>
@@ -33992,7 +33992,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
@@ -34138,7 +34138,7 @@
         <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175679</v>
       </c>
       <c r="N41" t="n">
         <v>981.2715114159425</v>
@@ -34153,7 +34153,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
         <v>125.31755462929</v>
@@ -34205,13 +34205,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>260.1710714068256</v>
       </c>
       <c r="L42" t="n">
         <v>638.8832749473072</v>
@@ -34220,13 +34220,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>528.6300513467554</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
         <v>375.599612848529</v>
@@ -34363,7 +34363,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34442,16 +34442,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>622.4211036182646</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
@@ -34460,10 +34460,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>537.6437863443698</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
         <v>375.599612848529</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K3" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P3" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,10 +34854,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L4" t="n">
         <v>319.7573721701981</v>
@@ -34869,13 +34869,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P4" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K6" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P6" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,10 +35091,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L7" t="n">
         <v>319.7573721701981</v>
@@ -35106,13 +35106,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P7" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N8" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P8" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,25 +35249,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
         <v>159.2338966127272</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K10" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L10" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O10" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>274.2960242312443</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>173.4910455250327</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,7 +35720,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -35729,25 +35729,25 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>259.5635423156791</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>590.3485648394733</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,34 +35957,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>73.1808046631526</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>205.0040068187903</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899086</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36200,13 +36200,13 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>235.5010321525773</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -36215,7 +36215,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>397.2883392634221</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
         <v>235.6178387625075</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,34 +36431,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>59.99058959552271</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>318.5044627483008</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,31 +36671,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
-        <v>311.9917356041954</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>237.2862717533515</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36908,13 +36908,13 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
@@ -36923,13 +36923,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>414.838122282419</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>219.1556674334648</v>
       </c>
       <c r="R30" t="n">
         <v>37.00975247789211</v>
@@ -37084,7 +37084,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
         <v>371.5675334924728</v>
@@ -37145,7 +37145,7 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
@@ -37154,19 +37154,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>386.659256927986</v>
+        <v>265.0837051983789</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>37.00975247789211</v>
@@ -37227,7 +37227,7 @@
         <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.3325884096333</v>
       </c>
       <c r="L34" t="n">
         <v>394.3420143191314</v>
@@ -37239,7 +37239,7 @@
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060441</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37318,7 +37318,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
         <v>559.5874541683811</v>
@@ -37379,13 +37379,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
@@ -37394,19 +37394,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>425.1908331501707</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>37.7638331807514</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37625,13 +37625,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>406.8301443969911</v>
+        <v>274.2960242312443</v>
       </c>
       <c r="O39" t="n">
         <v>557.4845759992799</v>
@@ -37640,7 +37640,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37786,7 +37786,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N41" t="n">
         <v>751.8584478193516</v>
@@ -37801,7 +37801,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,13 +37853,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>122.3296324324666</v>
       </c>
       <c r="L42" t="n">
         <v>500.328895167433</v>
@@ -37868,13 +37868,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>397.2883392634221</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
         <v>235.6178387625075</v>
@@ -38011,7 +38011,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38090,16 +38090,16 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>483.8667238383904</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
@@ -38108,10 +38108,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>395.0475418999253</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
         <v>235.6178387625075</v>
